--- a/figs_src/data.xlsx
+++ b/figs_src/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="2415" windowWidth="18960" windowHeight="9825" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,17 @@
     <sheet name="importance" sheetId="34" r:id="rId27"/>
     <sheet name="importance_graph" sheetId="36" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="39">
   <si>
     <t>UMC</t>
   </si>
@@ -174,6 +179,9 @@
   <si>
     <t>anav</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
@@ -1056,11 +1064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151214336"/>
-        <c:axId val="151216128"/>
+        <c:axId val="151148800"/>
+        <c:axId val="151150592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151214336"/>
+        <c:axId val="151148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151216128"/>
+        <c:crossAx val="151150592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1077,7 +1085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151216128"/>
+        <c:axId val="151150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151214336"/>
+        <c:crossAx val="151148800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,9 +1136,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.58229016528192756"/>
-          <c:w val="0.99808622098581845"/>
-          <c:h val="0.20764423746234142"/>
+          <c:y val="0.58229016528192801"/>
+          <c:w val="0.99808622098581801"/>
+          <c:h val="0.20764423746234101"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1795,6 +1803,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1906,6 +1921,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2017,6 +2039,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2123,11 +2152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153622016"/>
-        <c:axId val="153623552"/>
+        <c:axId val="153483136"/>
+        <c:axId val="153484672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153622016"/>
+        <c:axId val="153483136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2167,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-2700000" vert="horz" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="-2700000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2147,7 +2176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153623552"/>
+        <c:crossAx val="153484672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153623552"/>
+        <c:axId val="153484672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2186,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153622016"/>
+        <c:crossAx val="153483136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,10 +2226,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14882611278033522"/>
-          <c:y val="0.79994682000536366"/>
-          <c:w val="0.43831508534501418"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="0"/>
+          <c:y val="0.66176689687103896"/>
+          <c:w val="1"/>
+          <c:h val="0.11699852617247222"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2219,7 +2248,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900">
+        <a:defRPr sz="800">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -2855,6 +2884,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2966,6 +3002,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -3072,11 +3115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153731456"/>
-        <c:axId val="153732992"/>
+        <c:axId val="153727744"/>
+        <c:axId val="153729280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153731456"/>
+        <c:axId val="153727744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,7 +3129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153732992"/>
+        <c:crossAx val="153729280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,10 +3137,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153732992"/>
+        <c:axId val="153729280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3125,7 +3169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153731456"/>
+        <c:crossAx val="153727744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,10 +3180,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3090408304808483E-2"/>
-          <c:y val="0.80003956518501307"/>
-          <c:w val="0.34666881181215076"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="4.9999870113339097E-2"/>
+          <c:y val="0.82643159106172848"/>
+          <c:w val="0.89999993505666953"/>
+          <c:h val="8.6117419364908424E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3158,7 +3202,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900">
+        <a:defRPr sz="800">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -3553,11 +3597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153808896"/>
-        <c:axId val="153810432"/>
+        <c:axId val="153801088"/>
+        <c:axId val="153802624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153808896"/>
+        <c:axId val="153801088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,7 +3610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153810432"/>
+        <c:crossAx val="153802624"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3574,7 +3618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153810432"/>
+        <c:axId val="153802624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3603,13 +3647,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153808896"/>
+        <c:crossAx val="153801088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3620,8 +3665,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54704969072480059"/>
-          <c:y val="7.8492777001786279E-2"/>
+          <c:x val="0.54704969072480103"/>
+          <c:y val="7.8492777001786307E-2"/>
           <c:w val="0.41448619867053998"/>
           <c:h val="6.9038261161322403E-2"/>
         </c:manualLayout>
@@ -4067,11 +4112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154068864"/>
-        <c:axId val="154070400"/>
+        <c:axId val="153999616"/>
+        <c:axId val="154001408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154068864"/>
+        <c:axId val="153999616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154070400"/>
+        <c:crossAx val="154001408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4088,7 +4133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154070400"/>
+        <c:axId val="154001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4118,7 +4163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154068864"/>
+        <c:crossAx val="153999616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4946,11 +4991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151337216"/>
-        <c:axId val="151347200"/>
+        <c:axId val="151329024"/>
+        <c:axId val="151343104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151337216"/>
+        <c:axId val="151329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +5004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151347200"/>
+        <c:crossAx val="151343104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4967,7 +5012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151347200"/>
+        <c:axId val="151343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151337216"/>
+        <c:crossAx val="151329024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5018,9 +5063,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.58769819711400706"/>
-          <c:w val="0.9940944069297839"/>
-          <c:h val="0.20269481598642963"/>
+          <c:y val="0.58769819711400695"/>
+          <c:w val="0.99409440692978401"/>
+          <c:h val="0.20269481598642999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6034,11 +6079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151443712"/>
-        <c:axId val="151453696"/>
+        <c:axId val="151435520"/>
+        <c:axId val="151445504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151443712"/>
+        <c:axId val="151435520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,7 +6103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151453696"/>
+        <c:crossAx val="151445504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6066,7 +6111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151453696"/>
+        <c:axId val="151445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6085,7 +6130,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% Checks</a:t>
+                  <a:t>Coverage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6094,8 +6139,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.4220408001354818E-2"/>
-              <c:y val="0.19083486496831809"/>
+              <c:x val="2.4220408001354801E-2"/>
+              <c:y val="0.190834864968318"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6104,7 +6149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151443712"/>
+        <c:crossAx val="151435520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6115,10 +6160,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.66886981088174569"/>
-          <c:w val="1"/>
-          <c:h val="7.4683101063924992E-2"/>
+          <c:x val="0.2059114479508368"/>
+          <c:y val="0.8435287366002252"/>
+          <c:w val="0.58817710409832646"/>
+          <c:h val="8.6334289202725775E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6773,6 +6818,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6884,6 +6936,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -6995,6 +7054,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -7101,11 +7167,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152790912"/>
-        <c:axId val="152792448"/>
+        <c:axId val="152717184"/>
+        <c:axId val="152718720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152790912"/>
+        <c:axId val="152717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7116,7 +7182,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-2700000" vert="horz" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="-2700000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7125,7 +7191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152792448"/>
+        <c:crossAx val="152718720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7133,7 +7199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152792448"/>
+        <c:axId val="152718720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7152,7 +7218,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% Checks</a:t>
+                  <a:t>Coverage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7164,7 +7230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152790912"/>
+        <c:crossAx val="152717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7175,10 +7241,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14882611278033522"/>
-          <c:y val="0.79994682000536366"/>
-          <c:w val="0.43831508534501418"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="0.2059114479508368"/>
+          <c:y val="0.8435287366002252"/>
+          <c:w val="0.58817710409832646"/>
+          <c:h val="8.6334289202725775E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7197,7 +7263,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900">
+        <a:defRPr sz="800">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -7833,6 +7899,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -7944,6 +8017,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -8050,11 +8130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152885120"/>
-        <c:axId val="152886656"/>
+        <c:axId val="151635840"/>
+        <c:axId val="151637376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152885120"/>
+        <c:axId val="151635840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8064,7 +8144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152886656"/>
+        <c:crossAx val="151637376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8072,10 +8152,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152886656"/>
+        <c:axId val="151637376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8103,7 +8184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152885120"/>
+        <c:crossAx val="151635840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8114,10 +8195,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3090408304808483E-2"/>
-          <c:y val="0.80003956518501307"/>
-          <c:w val="0.34666881181215076"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="4.9999870250688645E-2"/>
+          <c:y val="0.84359091315419721"/>
+          <c:w val="0.89999993512534437"/>
+          <c:h val="8.5997721641426703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8136,7 +8217,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900">
+        <a:defRPr sz="800">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -9100,11 +9181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153056768"/>
-        <c:axId val="153058304"/>
+        <c:axId val="152932352"/>
+        <c:axId val="152933888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153056768"/>
+        <c:axId val="152932352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9124,7 +9205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153058304"/>
+        <c:crossAx val="152933888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9132,7 +9213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153058304"/>
+        <c:axId val="152933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9160,8 +9241,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.4220408001354818E-2"/>
-              <c:y val="0.19083486496831809"/>
+              <c:x val="2.4220408001354801E-2"/>
+              <c:y val="0.190834864968318"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9170,7 +9251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153056768"/>
+        <c:crossAx val="152932352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9181,10 +9262,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10762282701677622"/>
-          <c:y val="0.8208076323343505"/>
-          <c:w val="0.43831508534501418"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="0.107622827016776"/>
+          <c:y val="0.82080763233435095"/>
+          <c:w val="0.43831508534501401"/>
+          <c:h val="2.7983148170137698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10167,11 +10248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153230720"/>
-        <c:axId val="153244800"/>
+        <c:axId val="153083264"/>
+        <c:axId val="153162880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153230720"/>
+        <c:axId val="153083264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10191,7 +10272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153244800"/>
+        <c:crossAx val="153162880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10199,7 +10280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153244800"/>
+        <c:axId val="153162880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10230,7 +10311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153230720"/>
+        <c:crossAx val="153083264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10241,10 +10322,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14882611278033522"/>
-          <c:y val="0.79994682000536366"/>
-          <c:w val="0.43831508534501418"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="0.148826112780335"/>
+          <c:y val="0.79994682000536399"/>
+          <c:w val="0.43831508534501401"/>
+          <c:h val="2.7983148170137698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11116,11 +11197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153323776"/>
-        <c:axId val="153333760"/>
+        <c:axId val="153258240"/>
+        <c:axId val="153268224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153323776"/>
+        <c:axId val="153258240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11130,7 +11211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153333760"/>
+        <c:crossAx val="153268224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11138,7 +11219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153333760"/>
+        <c:axId val="153268224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11169,7 +11250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153323776"/>
+        <c:crossAx val="153258240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11180,10 +11261,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3090408304808483E-2"/>
-          <c:y val="0.80003956518501307"/>
-          <c:w val="0.34666881181215076"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="9.3090408304808497E-2"/>
+          <c:y val="0.80003956518501296"/>
+          <c:w val="0.34666881181215098"/>
+          <c:h val="2.7983148170137698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11838,6 +11919,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -11949,6 +12037,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -12060,6 +12155,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -12166,11 +12268,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153511808"/>
-        <c:axId val="153513344"/>
+        <c:axId val="153372544"/>
+        <c:axId val="153374080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153511808"/>
+        <c:axId val="153372544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12185,12 +12287,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900"/>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153513344"/>
+        <c:crossAx val="153374080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12198,7 +12300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153513344"/>
+        <c:axId val="153374080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12226,8 +12328,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.4220408001354818E-2"/>
-              <c:y val="0.19083486496831809"/>
+              <c:x val="2.4220408001354801E-2"/>
+              <c:y val="0.190834864968318"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12236,7 +12338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153511808"/>
+        <c:crossAx val="153372544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12247,10 +12349,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10762282701677622"/>
-          <c:y val="0.8208076323343505"/>
-          <c:w val="0.43831508534501418"/>
-          <c:h val="2.7983148170137653E-2"/>
+          <c:x val="0"/>
+          <c:y val="0.6850547470769851"/>
+          <c:w val="1"/>
+          <c:h val="7.0422825760579802E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12269,7 +12371,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900">
+        <a:defRPr sz="800">
           <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -12287,8 +12389,8 @@
     <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12296,10 +12398,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12308,10 +12410,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="223" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12320,11 +12422,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="400" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="300" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="300" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12347,8 +12449,8 @@
     <sheetView zoomScale="310" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12356,10 +12458,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="365" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12368,10 +12470,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12380,10 +12482,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12392,11 +12494,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12404,11 +12506,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12416,11 +12518,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12428,10 +12530,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12440,7 +12542,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3081338" cy="2176463"/>
+    <xdr:ext cx="2928938" cy="2024063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12467,7 +12569,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="3082868" cy="2181395"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12494,7 +12596,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="3079608" cy="2178363"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12521,7 +12623,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2609850" cy="1264444"/>
+    <xdr:ext cx="9651066" cy="7367868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12575,7 +12677,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3076575" cy="2181225"/>
+    <xdr:ext cx="2925097" cy="2021758"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12602,7 +12704,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3081925" cy="2179007"/>
+    <xdr:ext cx="6275586" cy="2172891"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12629,7 +12731,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="6275586" cy="2172891"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12656,7 +12758,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="3082868" cy="2181395"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12683,7 +12785,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="9651066" cy="7367868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12710,7 +12812,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="9651066" cy="7367868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12737,7 +12839,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="9651066" cy="7367868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12764,7 +12866,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9627973" cy="7353986"/>
+    <xdr:ext cx="3082868" cy="2181395"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -13300,7 +13402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -13715,6 +13817,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14094,6 +14201,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14300,7 +14412,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14515,7 +14627,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14524,7 +14641,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14725,7 +14842,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14856,7 +14978,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14867,10 +14989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14878,7 +15000,7 @@
     <col min="1" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -14919,7 +15041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14963,8 +15085,12 @@
         <f>GEOMEAN(B2:M2)</f>
         <v>4.3970736423760846</v>
       </c>
+      <c r="P2" s="2">
+        <f>0.5/(N2-1)</f>
+        <v>0.14718550512501541</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -15008,8 +15134,12 @@
         <f t="shared" ref="N3:N4" si="0">GEOMEAN(B3:M3)</f>
         <v>2.9221309676106046</v>
       </c>
+      <c r="P3" s="2">
+        <f>0.5/(N3-1)</f>
+        <v>0.2601279561202578</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -15054,14 +15184,19 @@
         <v>1.1329552766613324</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
-        <v>13</v>
+    <row r="6" spans="1:16">
+      <c r="L6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15482,6 +15617,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15489,7 +15629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -16714,6 +16854,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16721,7 +16866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -17136,6 +17281,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17515,6 +17665,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17936,5 +18091,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/figs_src/data.xlsx
+++ b/figs_src/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
   <si>
     <t>UMC</t>
   </si>
@@ -177,19 +177,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>anav</t>
+    <t>perlbench</t>
   </si>
   <si>
-    <t>k</t>
+    <t>sjeng</t>
+  </si>
+  <si>
+    <t>geomean</t>
+  </si>
+  <si>
+    <t>50% as percentage of full average</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="167" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -246,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -256,14 +273,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,16 +366,16 @@
             <c:numRef>
               <c:f>full_mon!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.9912200000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.168589000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.869929000000001</c:v>
+                  <c:v>7.7239719999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.831878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.563606999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,16 +424,16 @@
             <c:numRef>
               <c:f>full_mon!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.6384489999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.257133</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.408092</c:v>
+                  <c:v>8.2822840000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.199127000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.791442999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,16 +482,16 @@
             <c:numRef>
               <c:f>full_mon!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.0933810000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.282297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.742744</c:v>
+                  <c:v>6.6144730000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.396695000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.036182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,16 +540,16 @@
             <c:numRef>
               <c:f>full_mon!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9848909999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.931346000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.220306000000001</c:v>
+                  <c:v>3.720777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3039740000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.682588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,16 +598,16 @@
             <c:numRef>
               <c:f>full_mon!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.28294</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.920331000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.032220000000001</c:v>
+                  <c:v>8.3878640000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.97203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.559585999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,16 +656,16 @@
             <c:numRef>
               <c:f>full_mon!$G$2:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.5375269999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.808358999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.900269000000002</c:v>
+                  <c:v>9.3623580000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.858422000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.773891000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,16 +714,16 @@
             <c:numRef>
               <c:f>full_mon!$H$2:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.151121</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.513725000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.001530000000001</c:v>
+                  <c:v>6.7714410000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.561273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4547869999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,16 +772,16 @@
             <c:numRef>
               <c:f>full_mon!$I$2:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.208778000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.433198000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.498182999999999</c:v>
+                  <c:v>6.4267120000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.968989000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3255979999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,16 +830,16 @@
             <c:numRef>
               <c:f>full_mon!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.079666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.148035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.251961000000001</c:v>
+                  <c:v>10.895196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.171377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.461849000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,7 +854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>omnetpp</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -866,190 +888,16 @@
             <c:numRef>
               <c:f>full_mon!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.1149089999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.552880999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.994273</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>full_mon!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>astar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>full_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>full_mon!$L$2:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.8268050000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.137542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.868805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>full_mon!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>xalan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>full_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>full_mon!$M$2:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.4066190000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.502756000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.955995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>full_mon!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>geomean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>full_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>full_mon!$N$2:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.3303317923731637</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.456591997143914</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.766128107283489</c:v>
+                  <c:v>7.2965560521813453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.421514226627778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.179268740861485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,11 +912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151148800"/>
-        <c:axId val="151150592"/>
+        <c:axId val="152197376"/>
+        <c:axId val="152199168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151148800"/>
+        <c:axId val="152197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151150592"/>
+        <c:crossAx val="152199168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151150592"/>
+        <c:axId val="152199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,11 +968,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000_);[Red]\(0.0000\)" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151148800"/>
+        <c:crossAx val="152197376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1136,9 +984,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.58229016528192801"/>
+          <c:y val="0.68544193032456791"/>
           <c:w val="0.99808622098581801"/>
-          <c:h val="0.20764423746234101"/>
+          <c:h val="0.16096299362773453"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2152,11 +2000,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153483136"/>
-        <c:axId val="153484672"/>
+        <c:axId val="153617920"/>
+        <c:axId val="153619456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153483136"/>
+        <c:axId val="153617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153484672"/>
+        <c:crossAx val="153619456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2184,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153484672"/>
+        <c:axId val="153619456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2208,14 +2056,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153483136"/>
+        <c:crossAx val="153617920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2229,7 +2076,7 @@
           <c:x val="0"/>
           <c:y val="0.66176689687103896"/>
           <c:w val="1"/>
-          <c:h val="0.11699852617247222"/>
+          <c:h val="0.116998526172472"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3115,11 +2962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153727744"/>
-        <c:axId val="153729280"/>
+        <c:axId val="153731456"/>
+        <c:axId val="153732992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153727744"/>
+        <c:axId val="153731456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +2976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153729280"/>
+        <c:crossAx val="153732992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3137,7 +2984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153729280"/>
+        <c:axId val="153732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3162,14 +3009,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153727744"/>
+        <c:crossAx val="153731456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3181,9 +3027,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.9999870113339097E-2"/>
-          <c:y val="0.82643159106172848"/>
-          <c:w val="0.89999993505666953"/>
-          <c:h val="8.6117419364908424E-2"/>
+          <c:y val="0.82643159106172803"/>
+          <c:w val="0.89999993505666998"/>
+          <c:h val="8.6117419364908396E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3597,11 +3443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153801088"/>
-        <c:axId val="153802624"/>
+        <c:axId val="153804800"/>
+        <c:axId val="153806336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153801088"/>
+        <c:axId val="153804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3610,7 +3456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153802624"/>
+        <c:crossAx val="153806336"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3618,7 +3464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153802624"/>
+        <c:axId val="153806336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3647,14 +3493,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153801088"/>
+        <c:crossAx val="153804800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,11 +3957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153999616"/>
-        <c:axId val="154001408"/>
+        <c:axId val="154003328"/>
+        <c:axId val="154004864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153999616"/>
+        <c:axId val="154003328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +3970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154001408"/>
+        <c:crossAx val="154004864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4133,7 +3978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154001408"/>
+        <c:axId val="154004864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4163,7 +4008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153999616"/>
+        <c:crossAx val="154003328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4271,16 +4116,16 @@
             <c:numRef>
               <c:f>fade_mon!$B$2:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7170100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.787436</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.21132</c:v>
+                  <c:v>3.6908110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0945710000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.424669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,16 +4174,16 @@
             <c:numRef>
               <c:f>fade_mon!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.145759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.147765</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0389710000000001</c:v>
+                  <c:v>5.9143759999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9573180000000008</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.0572729999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,16 +4232,16 @@
             <c:numRef>
               <c:f>fade_mon!$D$2:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.158893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1145180000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2556799999999999</c:v>
+                  <c:v>3.381497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8364520000000004</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.1298299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,16 +4290,16 @@
             <c:numRef>
               <c:f>fade_mon!$E$2:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6670340000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.950939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6288849999999999</c:v>
+                  <c:v>1.636868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2343630000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.08467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,16 +4348,16 @@
             <c:numRef>
               <c:f>fade_mon!$F$2:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.1943809999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6304109999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.007082</c:v>
+                  <c:v>3.8641269999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6484040000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.129705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,16 +4406,16 @@
             <c:numRef>
               <c:f>fade_mon!$G$2:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.252332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8706990000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.599016</c:v>
+                  <c:v>3.6773880000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.704564999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.2512859999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,16 +4464,16 @@
             <c:numRef>
               <c:f>fade_mon!$H$2:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.509698999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0002260000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.000882</c:v>
+                  <c:v>3.9805480000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0588029999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.06552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4677,16 +4522,16 @@
             <c:numRef>
               <c:f>fade_mon!$I$2:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.5919179999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.167843</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0000020000000001</c:v>
+                  <c:v>2.706871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3159160000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.00081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4735,16 +4580,16 @@
             <c:numRef>
               <c:f>fade_mon!$J$2:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.2741530000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0668740000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0130520000000001</c:v>
+                  <c:v>4.4647759999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9782130000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.071547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>omnetpp</c:v>
+                  <c:v>geomean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4793,190 +4638,16 @@
             <c:numRef>
               <c:f>fade_mon!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.350603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0036750000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0054799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fade_mon!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>astar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>fade_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fade_mon!$L$2:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.3527490000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.000257</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fade_mon!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>xalan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>fade_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fade_mon!$M$2:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.2554349999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0121690000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0580430000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fade_mon!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>geomean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>fade_mon!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>UMC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DIFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fade_mon!$N$2:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.3970736423760846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9221309676106046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1329552766613324</c:v>
+                  <c:v>3.5182626745490992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4734099342126092</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_);[Red]\(0.00\)">
+                  <c:v>1.1290613736459196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4991,11 +4662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151329024"/>
-        <c:axId val="151343104"/>
+        <c:axId val="152377600"/>
+        <c:axId val="152391680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151329024"/>
+        <c:axId val="152377600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +4675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151343104"/>
+        <c:crossAx val="152391680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5012,7 +4683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151343104"/>
+        <c:axId val="152391680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5047,11 +4718,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000_);[Red]\(0.0000\)" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151329024"/>
+        <c:crossAx val="152377600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5063,9 +4734,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.58769819711400695"/>
+          <c:y val="0.66307837040832784"/>
           <c:w val="0.99409440692978401"/>
-          <c:h val="0.20269481598642999"/>
+          <c:h val="0.15244158796453386"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5150,9 +4821,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5181,15 +4852,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5197,48 +4859,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$2:$N$2</c:f>
+              <c:f>bc!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.89280000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80120000000000002</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97309999999999997</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80789999999999995</c:v>
+                  <c:v>0.96160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81179999999999997</c:v>
+                  <c:v>0.58260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.87175000000000014</c:v>
+                  <c:v>0.78669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.83421111111111101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,9 +4921,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5299,15 +4952,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5315,48 +4959,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$3:$N$3</c:f>
+              <c:f>bc!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.92020000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4763</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82420000000000004</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.94740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97370000000000001</c:v>
+                  <c:v>0.99690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81499999999999995</c:v>
+                  <c:v>0.9647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82930000000000004</c:v>
+                  <c:v>0.59370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80169999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.87997499999999995</c:v>
+                  <c:v>0.80920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.84941111111111101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,9 +5021,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5417,15 +5052,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5433,48 +5059,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$4:$N$4</c:f>
+              <c:f>bc!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.96970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5071</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88959999999999995</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84840000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98540000000000005</c:v>
+                  <c:v>0.99690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82769999999999999</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87339999999999995</c:v>
+                  <c:v>0.62849999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.90083333333333337</c:v>
+                  <c:v>0.84319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.87507777777777784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,9 +5121,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5535,15 +5152,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5551,48 +5159,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$5:$N$5</c:f>
+              <c:f>bc!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93020000000000003</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98550000000000004</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8397</c:v>
+                  <c:v>0.97360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92030000000000001</c:v>
+                  <c:v>0.66720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.9154916666666667</c:v>
+                  <c:v>0.87580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.89537777777777783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,9 +5221,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5653,15 +5252,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5669,48 +5259,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$6:$N$6</c:f>
+              <c:f>bc!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96779999999999999</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98560000000000003</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85160000000000002</c:v>
+                  <c:v>0.97609999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96250000000000002</c:v>
+                  <c:v>0.65990000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91830000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.92742500000000005</c:v>
+                  <c:v>0.89590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.90665555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,9 +5321,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5771,15 +5352,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5787,48 +5359,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$7:$N$7</c:f>
+              <c:f>bc!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5323</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99460000000000004</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98570000000000002</c:v>
+                  <c:v>0.99709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86280000000000001</c:v>
+                  <c:v>0.97909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.66790000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9587</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.93778333333333341</c:v>
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.92181111111111114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,9 +5421,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -5889,15 +5452,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -5905,48 +5459,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$8:$N$8</c:f>
+              <c:f>bc!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53990000000000005</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98580000000000001</c:v>
+                  <c:v>0.99709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87429999999999997</c:v>
+                  <c:v>0.98119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.74819999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9194</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.94210833333333344</c:v>
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.94471111111111106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,9 +5521,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>bc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6007,15 +5552,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6023,48 +5559,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bc!$B$9:$N$9</c:f>
+              <c:f>bc!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54900000000000004</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9859</c:v>
+                  <c:v>0.99709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88300000000000001</c:v>
+                  <c:v>0.98319999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.7742</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91949999999999998</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99880000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.94467500000000004</c:v>
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.95586666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6079,11 +5606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151435520"/>
-        <c:axId val="151445504"/>
+        <c:axId val="152484096"/>
+        <c:axId val="152494080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151435520"/>
+        <c:axId val="152484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6103,7 +5630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151445504"/>
+        <c:crossAx val="152494080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6111,7 +5638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151445504"/>
+        <c:axId val="152494080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6149,7 +5676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151435520"/>
+        <c:crossAx val="152484096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6160,10 +5687,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2059114479508368"/>
-          <c:y val="0.8435287366002252"/>
-          <c:w val="0.58817710409832646"/>
-          <c:h val="8.6334289202725775E-2"/>
+          <c:x val="0.20591144795083699"/>
+          <c:y val="0.84352873660022498"/>
+          <c:w val="0.58817710409832702"/>
+          <c:h val="8.6334289202725706E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6238,9 +5765,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6269,15 +5796,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6285,48 +5803,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$2:$N$2</c:f>
+              <c:f>umc!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.48039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46360000000000001</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36759999999999998</c:v>
+                  <c:v>0.82330000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49530000000000002</c:v>
+                  <c:v>0.39529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56110000000000004</c:v>
+                  <c:v>0.4148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55679999999999996</c:v>
+                  <c:v>0.49149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53249999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4768</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.42130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.49980833333333335</c:v>
+                  <c:v>0.3533</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.5059555555555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6356,9 +5865,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6387,15 +5896,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6403,48 +5903,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$3:$N$3</c:f>
+              <c:f>umc!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.58709999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61929999999999996</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4894</c:v>
+                  <c:v>0.89680000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57640000000000002</c:v>
+                  <c:v>0.51849999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93940000000000001</c:v>
+                  <c:v>0.74660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65369999999999995</c:v>
+                  <c:v>0.59719999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99470000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.62649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.63470833333333332</c:v>
+                  <c:v>0.47570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.63367777777777767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,9 +5965,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6505,15 +5996,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6521,48 +6003,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$4:$N$4</c:f>
+              <c:f>umc!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.81430000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80589999999999995</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.78580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69789999999999996</c:v>
+                  <c:v>0.94910000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73829999999999996</c:v>
+                  <c:v>0.70230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.91339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88139999999999996</c:v>
+                  <c:v>0.8196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99860000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77749999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91869999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.96160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.81407499999999999</c:v>
+                  <c:v>0.71289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.80172222222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6592,9 +6065,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6623,15 +6096,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6639,48 +6103,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$5:$N$5</c:f>
+              <c:f>umc!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56520000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99650000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90390000000000004</c:v>
+                  <c:v>0.98370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90839999999999999</c:v>
+                  <c:v>0.86770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99519999999999997</c:v>
+                  <c:v>0.99839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97130000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.94240000000000002</c:v>
+                  <c:v>0.9284</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.93588888888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6710,9 +6165,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6741,15 +6196,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6757,21 +6203,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$6:$N$6</c:f>
+              <c:f>umc!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69189999999999996</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97240000000000004</c:v>
+                  <c:v>0.99980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6780,25 +6226,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99480000000000002</c:v>
+                  <c:v>0.99919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.97159166666666652</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.97512222222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6828,9 +6265,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6859,15 +6296,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6875,21 +6303,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$7:$N$7</c:f>
+              <c:f>umc!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80710000000000004</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6898,7 +6326,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99770000000000003</c:v>
+                  <c:v>0.99929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -6906,17 +6334,8 @@
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.98373333333333335</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.98991111111111119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6946,9 +6365,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -6977,15 +6396,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -6993,21 +6403,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$8:$N$8</c:f>
+              <c:f>umc!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92989999999999995</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -7024,17 +6434,8 @@
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.99410833333333326</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.99903333333333322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,9 +6465,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>umc!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>perlbench</c:v>
                 </c:pt>
@@ -7095,15 +6496,6 @@
                   <c:v>h264ref</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>omnetpp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>xalan</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
@@ -7111,10 +6503,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>umc!$B$9:$N$9</c:f>
+              <c:f>umc!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7142,17 +6534,8 @@
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.99995000000000001</c:v>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.99993333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7167,11 +6550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152717184"/>
-        <c:axId val="152718720"/>
+        <c:axId val="152782720"/>
+        <c:axId val="152784256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152717184"/>
+        <c:axId val="152782720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7191,7 +6574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152718720"/>
+        <c:crossAx val="152784256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7199,7 +6582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152718720"/>
+        <c:axId val="152784256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7230,7 +6613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152717184"/>
+        <c:crossAx val="152782720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7241,10 +6624,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2059114479508368"/>
-          <c:y val="0.8435287366002252"/>
-          <c:w val="0.58817710409832646"/>
-          <c:h val="8.6334289202725775E-2"/>
+          <c:x val="0.20591144795083699"/>
+          <c:y val="0.84352873660022498"/>
+          <c:w val="0.58817710409832702"/>
+          <c:h val="8.6334289202725706E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7976,7 +7359,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -7997,7 +7380,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.0000">
-                  <c:v>0.99999166666666672</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8130,11 +7513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151635840"/>
-        <c:axId val="151637376"/>
+        <c:axId val="152749952"/>
+        <c:axId val="152751488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151635840"/>
+        <c:axId val="152749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8144,7 +7527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151637376"/>
+        <c:crossAx val="152751488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8152,7 +7535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151637376"/>
+        <c:axId val="152751488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8184,7 +7567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151635840"/>
+        <c:crossAx val="152749952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8195,9 +7578,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9999870250688645E-2"/>
-          <c:y val="0.84359091315419721"/>
-          <c:w val="0.89999993512534437"/>
+          <c:x val="4.9999870250688701E-2"/>
+          <c:y val="0.84359091315419699"/>
+          <c:w val="0.89999993512534504"/>
           <c:h val="8.5997721641426703E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9181,11 +8564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152932352"/>
-        <c:axId val="152933888"/>
+        <c:axId val="152991232"/>
+        <c:axId val="152992768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152932352"/>
+        <c:axId val="152991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9205,7 +8588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152933888"/>
+        <c:crossAx val="152992768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9213,7 +8596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152933888"/>
+        <c:axId val="152992768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9251,7 +8634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152932352"/>
+        <c:crossAx val="152991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10248,11 +9631,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153083264"/>
+        <c:axId val="153148800"/>
         <c:axId val="153162880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153083264"/>
+        <c:axId val="153148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10304,14 +9687,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153083264"/>
+        <c:crossAx val="153148800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11198,7 +10580,7 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:axId val="153258240"/>
-        <c:axId val="153268224"/>
+        <c:axId val="153272320"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="153258240"/>
@@ -11211,7 +10593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153268224"/>
+        <c:crossAx val="153272320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11219,7 +10601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153268224"/>
+        <c:axId val="153272320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11243,7 +10625,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -12268,11 +11649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153372544"/>
-        <c:axId val="153374080"/>
+        <c:axId val="153438080"/>
+        <c:axId val="153439616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153372544"/>
+        <c:axId val="153438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12292,7 +11673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153374080"/>
+        <c:crossAx val="153439616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12300,7 +11681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153374080"/>
+        <c:axId val="153439616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12338,7 +11719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153372544"/>
+        <c:crossAx val="153438080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12350,7 +11731,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.6850547470769851"/>
+          <c:y val="0.68505474707698499"/>
           <c:w val="1"/>
           <c:h val="7.0422825760579802E-2"/>
         </c:manualLayout>
@@ -12389,8 +11770,8 @@
     <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -12401,8 +11782,8 @@
     <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12413,8 +11794,8 @@
     <sheetView zoomScale="223" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12449,8 +11830,8 @@
     <sheetView zoomScale="310" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -12458,7 +11839,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12470,7 +11851,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12482,11 +11863,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="346" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12533,8 +11914,8 @@
     <sheetView zoomScale="224" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -12542,7 +11923,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2928938" cy="2024063"/>
+    <xdr:ext cx="3081338" cy="2176463"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12677,7 +12058,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2925097" cy="2021758"/>
+    <xdr:ext cx="3075653" cy="2175387"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12704,7 +12085,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6275586" cy="2172891"/>
+    <xdr:ext cx="6279963" cy="2180478"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12731,7 +12112,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6275586" cy="2172891"/>
+    <xdr:ext cx="6279963" cy="2180478"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12758,7 +12139,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3082868" cy="2181395"/>
+    <xdr:ext cx="2929075" cy="2026127"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -13176,215 +12557,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:13">
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>7.9912200000000002</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9.6384489999999996</v>
-      </c>
-      <c r="D2" s="7">
-        <v>9.0933810000000008</v>
-      </c>
-      <c r="E2" s="7">
-        <v>8.9848909999999993</v>
-      </c>
-      <c r="F2" s="7">
-        <v>9.28294</v>
-      </c>
-      <c r="G2" s="7">
-        <v>4.5375269999999999</v>
-      </c>
-      <c r="H2" s="7">
-        <v>11.151121</v>
-      </c>
-      <c r="I2" s="7">
-        <v>11.208778000000001</v>
-      </c>
-      <c r="J2" s="7">
-        <v>10.079666</v>
-      </c>
-      <c r="K2" s="7">
-        <v>5.1149089999999999</v>
-      </c>
-      <c r="L2" s="7">
-        <v>8.8268050000000002</v>
-      </c>
-      <c r="M2" s="7">
-        <v>7.4066190000000001</v>
-      </c>
-      <c r="N2" s="8">
-        <f>GEOMEAN(B2:M2)</f>
-        <v>8.3303317923731637</v>
-      </c>
-      <c r="O2" s="10">
-        <f>MIN(B2:N2)</f>
-        <v>4.5375269999999999</v>
-      </c>
-      <c r="P2" s="10">
-        <f>MAX(B2:N2)</f>
-        <v>11.208778000000001</v>
+      <c r="B2" s="9">
+        <v>7.7239719999999998</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8.2822840000000006</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6.6144730000000003</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3.720777</v>
+      </c>
+      <c r="F2" s="9">
+        <v>8.3878640000000004</v>
+      </c>
+      <c r="G2" s="9">
+        <v>9.3623580000000004</v>
+      </c>
+      <c r="H2" s="9">
+        <v>6.7714410000000003</v>
+      </c>
+      <c r="I2" s="9">
+        <v>6.4267120000000002</v>
+      </c>
+      <c r="J2" s="9">
+        <v>10.895196</v>
+      </c>
+      <c r="K2" s="10">
+        <f>GEOMEAN(B2:J2)</f>
+        <v>7.2965560521813453</v>
+      </c>
+      <c r="L2" s="8">
+        <f>MIN(B2:J2)</f>
+        <v>3.720777</v>
+      </c>
+      <c r="M2" s="8">
+        <f>MAX(B2:J2)</f>
+        <v>10.895196</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>21.168589000000001</v>
-      </c>
-      <c r="C3" s="7">
-        <v>21.257133</v>
-      </c>
-      <c r="D3" s="7">
-        <v>23.282297</v>
-      </c>
-      <c r="E3" s="7">
-        <v>21.931346000000001</v>
-      </c>
-      <c r="F3" s="7">
-        <v>23.920331000000001</v>
-      </c>
-      <c r="G3" s="7">
-        <v>17.808358999999999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>22.513725000000001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>24.433198000000001</v>
-      </c>
-      <c r="J3" s="7">
-        <v>28.148035</v>
-      </c>
-      <c r="K3" s="7">
-        <v>14.552880999999999</v>
-      </c>
-      <c r="L3" s="7">
-        <v>22.137542</v>
-      </c>
-      <c r="M3" s="7">
-        <v>19.502756000000002</v>
-      </c>
-      <c r="N3" s="8">
-        <f t="shared" ref="N3:N4" si="0">GEOMEAN(B3:M3)</f>
-        <v>21.456591997143914</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O4" si="1">MIN(B3:N3)</f>
-        <v>14.552880999999999</v>
-      </c>
-      <c r="P3" s="10">
-        <f t="shared" ref="P3:P4" si="2">MAX(B3:N3)</f>
-        <v>28.148035</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
+      <c r="B3" s="9">
+        <v>18.831878</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20.199127000000001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>17.396695000000001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9.3039740000000002</v>
+      </c>
+      <c r="F3" s="9">
+        <v>21.97203</v>
+      </c>
+      <c r="G3" s="9">
+        <v>25.858422000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>16.561273</v>
+      </c>
+      <c r="I3" s="9">
+        <v>14.968989000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <v>28.171377</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:K4" si="0">GEOMEAN(B3:J3)</f>
+        <v>18.421514226627778</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L4" si="1">MIN(B3:J3)</f>
+        <v>9.3039740000000002</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M4" si="2">MAX(B3:J3)</f>
+        <v>28.171377</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>12.869929000000001</v>
-      </c>
-      <c r="C4" s="7">
-        <v>14.408092</v>
-      </c>
-      <c r="D4" s="7">
-        <v>14.742744</v>
-      </c>
-      <c r="E4" s="7">
-        <v>14.220306000000001</v>
-      </c>
-      <c r="F4" s="7">
-        <v>14.032220000000001</v>
-      </c>
-      <c r="G4" s="7">
-        <v>16.900269000000002</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11.001530000000001</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12.498182999999999</v>
-      </c>
-      <c r="J4" s="7">
-        <v>17.251961000000001</v>
-      </c>
-      <c r="K4" s="7">
-        <v>10.994273</v>
-      </c>
-      <c r="L4" s="7">
-        <v>14.868805</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12.955995</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="B4" s="9">
+        <v>11.563606999999999</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12.791442999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11.036182</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5.682588</v>
+      </c>
+      <c r="F4" s="9">
+        <v>13.559585999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>15.773891000000001</v>
+      </c>
+      <c r="H4" s="9">
+        <v>9.4547869999999996</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8.3255979999999994</v>
+      </c>
+      <c r="J4" s="9">
+        <v>17.461849000000001</v>
+      </c>
+      <c r="K4" s="10">
         <f t="shared" si="0"/>
-        <v>13.766128107283489</v>
-      </c>
-      <c r="O4" s="10">
+        <v>11.179268740861485</v>
+      </c>
+      <c r="L4" s="8">
         <f t="shared" si="1"/>
-        <v>10.994273</v>
-      </c>
-      <c r="P4" s="10">
+        <v>5.682588</v>
+      </c>
+      <c r="M4" s="8">
         <f t="shared" si="2"/>
-        <v>17.251961000000001</v>
+        <v>17.461849000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="L10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -13457,40 +12804,40 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.97609999999999997</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.35730000000000001</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.98180000000000001</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.998</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.99480000000000002</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
         <v>0.95309999999999995</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <v>0.91790000000000005</v>
       </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>0.97519999999999996</v>
       </c>
       <c r="N2" s="4">
@@ -13502,40 +12849,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.97650000000000003</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.35730000000000001</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.998</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>0.95309999999999995</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>0.92030000000000001</v>
       </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>0.97709999999999997</v>
       </c>
       <c r="N3" s="4">
@@ -13547,40 +12894,40 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.97740000000000005</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.45369999999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.9869</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.99839999999999995</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.97640000000000005</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>0.96989999999999998</v>
       </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.9819</v>
       </c>
       <c r="N4" s="4">
@@ -13592,40 +12939,40 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.57640000000000002</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
         <v>0.99529999999999996</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="4">
@@ -13637,40 +12984,40 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.70109999999999995</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>0.9708</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="4">
@@ -13682,40 +13029,40 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.81830000000000003</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.99780000000000002</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="4">
@@ -13727,40 +13074,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.93479999999999996</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.99819999999999998</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="4">
@@ -13772,40 +13119,40 @@
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.99839999999999995</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="4">
@@ -14989,10 +14336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15000,7 +14347,7 @@
     <col min="1" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -15029,164 +14376,162 @@
         <v>29</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>3.7170100000000001</v>
-      </c>
-      <c r="C2" s="7">
-        <v>7.145759</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4.158893</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.6670340000000001</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4.1943809999999999</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2.252332</v>
-      </c>
-      <c r="H2" s="7">
-        <v>11.509698999999999</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4.5919179999999997</v>
-      </c>
-      <c r="J2" s="7">
-        <v>4.2741530000000001</v>
-      </c>
-      <c r="K2" s="7">
-        <v>3.350603</v>
-      </c>
-      <c r="L2" s="7">
-        <v>4.3527490000000002</v>
-      </c>
-      <c r="M2" s="7">
-        <v>3.2554349999999999</v>
-      </c>
-      <c r="N2" s="8">
-        <f>GEOMEAN(B2:M2)</f>
-        <v>4.3970736423760846</v>
-      </c>
-      <c r="P2" s="2">
-        <f>0.5/(N2-1)</f>
-        <v>0.14718550512501541</v>
+      <c r="B2" s="9">
+        <v>3.6908110000000001</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5.9143759999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3.381497</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.636868</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3.8641269999999999</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3.6773880000000001</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3.9805480000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.706871</v>
+      </c>
+      <c r="J2" s="9">
+        <v>4.4647759999999996</v>
+      </c>
+      <c r="K2" s="10">
+        <f>GEOMEAN(B2:J2)</f>
+        <v>3.5182626745490992</v>
+      </c>
+      <c r="L2" s="13">
+        <f>MIN(B2:J2)</f>
+        <v>1.636868</v>
+      </c>
+      <c r="M2" s="13">
+        <f>MAX(B2:J2)</f>
+        <v>5.9143759999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.787436</v>
-      </c>
-      <c r="C3" s="7">
-        <v>10.147765</v>
-      </c>
-      <c r="D3" s="7">
-        <v>6.1145180000000003</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.950939</v>
-      </c>
-      <c r="F3" s="7">
-        <v>7.6304109999999996</v>
-      </c>
-      <c r="G3" s="7">
-        <v>4.8706990000000001</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.0002260000000001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3.167843</v>
-      </c>
-      <c r="J3" s="7">
-        <v>7.0668740000000003</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1.0036750000000001</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.0121690000000001</v>
-      </c>
-      <c r="N3" s="8">
-        <f t="shared" ref="N3:N4" si="0">GEOMEAN(B3:M3)</f>
-        <v>2.9221309676106046</v>
-      </c>
-      <c r="P3" s="2">
-        <f>0.5/(N3-1)</f>
-        <v>0.2601279561202578</v>
+      <c r="B3" s="9">
+        <v>3.0945710000000002</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8.9573180000000008</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5.8364520000000004</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.2343630000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.6484040000000002</v>
+      </c>
+      <c r="G3" s="9">
+        <v>16.704564999999999</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0588029999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.3159160000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5.9782130000000002</v>
+      </c>
+      <c r="K3" s="10">
+        <f>GEOMEAN(B3:J3)</f>
+        <v>3.4734099342126092</v>
+      </c>
+      <c r="L3" s="13">
+        <f t="shared" ref="L3:L4" si="0">MIN(B3:J3)</f>
+        <v>1.0588029999999999</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M4" si="1">MAX(B3:J3)</f>
+        <v>16.704564999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>1.21132</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.0389710000000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.2556799999999999</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.6288849999999999</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.007082</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.599016</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.000882</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.0000020000000001</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1.0130520000000001</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1.0054799999999999</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1.000257</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1.0580430000000001</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="B4" s="11">
+        <v>1.424669</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.0572729999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.1298299999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.08467</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.129705</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1.2512859999999999</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.06552</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.00081</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.071547</v>
+      </c>
+      <c r="K4" s="12">
+        <f>GEOMEAN(B4:J4)</f>
+        <v>1.1290613736459196</v>
+      </c>
+      <c r="L4" s="13">
         <f t="shared" si="0"/>
-        <v>1.1329552766613324</v>
+        <v>1.00081</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" si="1"/>
+        <v>1.424669</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="L6" s="2" t="s">
-        <v>38</v>
+    <row r="6" spans="1:13">
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="K7" s="2">
+        <f>0.5/(K2-1)</f>
+        <v>0.19854958144488488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="K8" s="2">
+        <f>0.5/(K3-1)</f>
+        <v>0.20215007350133049</v>
       </c>
     </row>
   </sheetData>
@@ -15202,10 +14547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15213,7 +14558,7 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -15241,377 +14586,296 @@
       <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.47249999999999998</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.97309999999999997</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.80789999999999995</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.81179999999999997</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.78239999999999998</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N2" s="4">
-        <f>AVERAGE(B2:M2)</f>
-        <v>0.87175000000000014</v>
+      <c r="B2" s="7">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.9819</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="K2" s="4">
+        <f>AVERAGE(B2:J2)</f>
+        <v>0.83421111111111101</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.4763</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.97370000000000001</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.80169999999999997</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N9" si="0">AVERAGE(B3:M3)</f>
-        <v>0.87997499999999995</v>
+      <c r="B3" s="7">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.7843</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.9647</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.9819</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="K3" s="4">
+        <f>AVERAGE(B3:J3)</f>
+        <v>0.84941111111111101</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.5071</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.88959999999999995</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.82769999999999999</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.90083333333333337</v>
+      <c r="B4" s="7">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.9819</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="K4" s="4">
+        <f>AVERAGE(B4:J4)</f>
+        <v>0.87507777777777784</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.51590000000000003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.93020000000000003</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.8397</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.92030000000000001</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9154916666666667</v>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <f>AVERAGE(B5:J5)</f>
+        <v>0.89537777777777783</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.96779999999999999</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.85160000000000002</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.91830000000000001</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.92742500000000005</v>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <f>AVERAGE(B6:J6)</f>
+        <v>0.90665555555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.5323</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.99460000000000004</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.86280000000000001</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.9587</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.93778333333333341</v>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.66790000000000005</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K7" s="4">
+        <f>AVERAGE(B7:J7)</f>
+        <v>0.92181111111111114</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.53990000000000005</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.87429999999999997</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.9194</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94210833333333344</v>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="K8" s="4">
+        <f>AVERAGE(B8:J8)</f>
+        <v>0.94471111111111106</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.9859</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94467500000000004</v>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.7742</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K9" s="4">
+        <f>AVERAGE(B9:J9)</f>
+        <v>0.95586666666666664</v>
       </c>
     </row>
   </sheetData>
@@ -15627,10 +14891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15638,7 +14902,7 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -15667,377 +14931,296 @@
       <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.46360000000000001</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.36759999999999998</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.49530000000000002</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.56110000000000004</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.55679999999999996</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.4163</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.4768</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.42130000000000001</v>
-      </c>
-      <c r="N2" s="4">
-        <f>AVERAGE(B2:M2)</f>
-        <v>0.49980833333333335</v>
+      <c r="B2" s="7">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.4148</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3533</v>
+      </c>
+      <c r="K2" s="4">
+        <f>AVERAGE(B2:J2)</f>
+        <v>0.5059555555555556</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.58709999999999996</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.31859999999999999</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.4894</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.57640000000000002</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.65369999999999995</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.70140000000000002</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.55520000000000003</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.62649999999999995</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N9" si="0">AVERAGE(B3:M3)</f>
-        <v>0.63470833333333332</v>
+      <c r="B3" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.59430000000000005</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <f>AVERAGE(B3:J3)</f>
+        <v>0.63367777777777767</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.81430000000000002</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.69789999999999996</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.91869999999999996</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.7611</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.96160000000000001</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81407499999999999</v>
+      <c r="B4" s="7">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.8196</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="K4" s="4">
+        <f>AVERAGE(B4:J4)</f>
+        <v>0.80172222222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.56520000000000004</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.90390000000000004</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.99519999999999997</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.96479999999999999</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.94240000000000002</v>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.9284</v>
+      </c>
+      <c r="K5" s="4">
+        <f>AVERAGE(B5:J5)</f>
+        <v>0.93588888888888888</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.69189999999999996</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.97240000000000004</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97159166666666652</v>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <f>AVERAGE(B6:J6)</f>
+        <v>0.97512222222222222</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.98373333333333335</v>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <f>AVERAGE(B7:J7)</f>
+        <v>0.98991111111111119</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99410833333333326</v>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <f>AVERAGE(B8:J8)</f>
+        <v>0.99903333333333322</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>AVERAGE(B9:J9)</f>
+        <v>0.99993333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -16057,7 +15240,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16352,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -16374,7 +15557,7 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999166666666672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -16441,7 +15624,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16495,40 +15678,40 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.47099999999999997</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.97309999999999997</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.88549999999999995</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.81430000000000002</v>
       </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>0.77780000000000005</v>
       </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N2" s="4">
@@ -16540,40 +15723,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.92130000000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.47439999999999999</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.91269999999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.97370000000000001</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.88549999999999995</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.83079999999999998</v>
       </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.80379999999999996</v>
       </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N3" s="4">
@@ -16585,40 +15768,40 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.96630000000000005</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.48110000000000003</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.91349999999999998</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.98540000000000005</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.88560000000000005</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.87139999999999995</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>0.82189999999999996</v>
       </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N4" s="4">
@@ -16630,40 +15813,40 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.48730000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.94369999999999998</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.98550000000000004</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.88619999999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.92069999999999996</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>0.83009999999999995</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N5" s="4">
@@ -16675,40 +15858,40 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.49409999999999998</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>0.98619999999999997</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0.98560000000000003</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>0.88690000000000002</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>0.96260000000000001</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>0.9173</v>
       </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N6" s="4">
@@ -16720,40 +15903,40 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.50070000000000003</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.99919999999999998</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>0.88729999999999998</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>0.95709999999999995</v>
       </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N7" s="4">
@@ -16765,40 +15948,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.53879999999999995</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.98580000000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>0.88749999999999996</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>0.96870000000000001</v>
       </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N8" s="4">
@@ -16810,40 +15993,40 @@
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.54620000000000002</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.9859</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>0.88770000000000004</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.91949999999999998</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>0.97640000000000005</v>
       </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N9" s="4">
@@ -16921,40 +16104,40 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.97609999999999997</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.35730000000000001</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.98180000000000001</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.998</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.99480000000000002</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
         <v>0.95309999999999995</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="7">
         <v>0.91790000000000005</v>
       </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>0.97519999999999996</v>
       </c>
       <c r="N2" s="4">
@@ -16966,40 +16149,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.97650000000000003</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.35730000000000001</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.998</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>0.95309999999999995</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>0.92030000000000001</v>
       </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>0.97709999999999997</v>
       </c>
       <c r="N3" s="4">
@@ -17011,40 +16194,40 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.97740000000000005</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.45369999999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.9869</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.9446</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.99839999999999995</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.97640000000000005</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>0.96989999999999998</v>
       </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.9819</v>
       </c>
       <c r="N4" s="4">
@@ -17056,40 +16239,40 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.57640000000000002</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.99970000000000003</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
         <v>0.99529999999999996</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="4">
@@ -17101,40 +16284,40 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.70109999999999995</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>0.9708</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="4">
@@ -17146,40 +16329,40 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.81830000000000003</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.99780000000000002</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="4">
@@ -17191,40 +16374,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.93479999999999996</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.99819999999999998</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="4">
@@ -17236,40 +16419,40 @@
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.99839999999999995</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>0.99750000000000005</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="4">
@@ -17732,40 +16915,40 @@
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>0.49120000000000003</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.98240000000000005</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>0.88549999999999995</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.81430000000000002</v>
       </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>0.77780000000000005</v>
       </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N2" s="4">
@@ -17777,40 +16960,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.92130000000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.49440000000000001</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.91269999999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.98470000000000002</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.88549999999999995</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.83089999999999997</v>
       </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.80379999999999996</v>
       </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N3" s="4">
@@ -17822,40 +17005,40 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.96630000000000005</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.50249999999999995</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.91349999999999998</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.98540000000000005</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.88560000000000005</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.87129999999999996</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>0.82189999999999996</v>
       </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N4" s="4">
@@ -17867,40 +17050,40 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.51190000000000002</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.94369999999999998</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.98550000000000004</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.88619999999999999</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.91910000000000003</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>0.83009999999999995</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N5" s="4">
@@ -17912,40 +17095,40 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.52110000000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>0.98619999999999997</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0.98560000000000003</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>0.88690000000000002</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>0.96230000000000004</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>0.9173</v>
       </c>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N6" s="4">
@@ -17957,40 +17140,40 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.52759999999999996</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.99919999999999998</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>0.88729999999999998</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>0.95709999999999995</v>
       </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N7" s="4">
@@ -18002,40 +17185,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.53569999999999995</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>0.98580000000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>0.88749999999999996</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.9194</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>0.96879999999999999</v>
       </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N8" s="4">
@@ -18047,40 +17230,40 @@
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.54510000000000003</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.9859</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>0.88770000000000004</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.91949999999999998</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>0.97640000000000005</v>
       </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>0.99990000000000001</v>
       </c>
       <c r="N9" s="4">

--- a/figs_src/data.xlsx
+++ b/figs_src/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="45">
   <si>
     <t>UMC</t>
   </si>
@@ -197,6 +197,9 @@
   <si>
     <t>h</t>
   </si>
+  <si>
+    <t>700% Overhead</t>
+  </si>
 </sst>
 </file>
 
@@ -205,8 +208,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="167" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -277,15 +280,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152197376"/>
-        <c:axId val="152199168"/>
+        <c:axId val="155332608"/>
+        <c:axId val="155334144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152197376"/>
+        <c:axId val="155332608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152199168"/>
+        <c:crossAx val="155334144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152199168"/>
+        <c:axId val="155334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,14 +968,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152197376"/>
+        <c:crossAx val="155332608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,11 +2002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153617920"/>
-        <c:axId val="153619456"/>
+        <c:axId val="157786112"/>
+        <c:axId val="157787648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153617920"/>
+        <c:axId val="157786112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153619456"/>
+        <c:crossAx val="157787648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153619456"/>
+        <c:axId val="157787648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2062,7 +2064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153617920"/>
+        <c:crossAx val="157786112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,11 +2964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153731456"/>
-        <c:axId val="153732992"/>
+        <c:axId val="157874816"/>
+        <c:axId val="157884800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153731456"/>
+        <c:axId val="157874816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +2978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153732992"/>
+        <c:crossAx val="157884800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2984,7 +2986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153732992"/>
+        <c:axId val="157884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3015,7 +3017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153731456"/>
+        <c:crossAx val="157874816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3443,11 +3445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153804800"/>
-        <c:axId val="153806336"/>
+        <c:axId val="157964544"/>
+        <c:axId val="157978624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153804800"/>
+        <c:axId val="157964544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="153806336"/>
+        <c:crossAx val="157978624"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153806336"/>
+        <c:axId val="157978624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3499,7 +3501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153804800"/>
+        <c:crossAx val="157964544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,11 +3959,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154003328"/>
-        <c:axId val="154004864"/>
+        <c:axId val="158171520"/>
+        <c:axId val="158173056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154003328"/>
+        <c:axId val="158171520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +3972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154004864"/>
+        <c:crossAx val="158173056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3978,7 +3980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154004864"/>
+        <c:axId val="158173056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4008,7 +4010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154003328"/>
+        <c:crossAx val="158171520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4662,11 +4664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152377600"/>
-        <c:axId val="152391680"/>
+        <c:axId val="155563136"/>
+        <c:axId val="155564672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152377600"/>
+        <c:axId val="155563136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152391680"/>
+        <c:crossAx val="155564672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4683,7 +4685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152391680"/>
+        <c:axId val="155564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,14 +4717,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152377600"/>
+        <c:crossAx val="155563136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4806,7 +4807,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50%</c:v>
+                  <c:v>10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4864,22 +4865,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91379999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53779999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75449999999999995</c:v>
+                  <c:v>0.87609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70809999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98899999999999999</c:v>
+                  <c:v>0.98219999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96160000000000001</c:v>
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58260000000000001</c:v>
+                  <c:v>0.57750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -4888,10 +4889,10 @@
                   <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78669999999999995</c:v>
+                  <c:v>0.77080000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.83421111111111101</c:v>
+                  <c:v>0.81820000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,7 +4907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100%</c:v>
+                  <c:v>50%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4964,22 +4965,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.94740000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7843</c:v>
+                  <c:v>0.91379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99690000000000001</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9647</c:v>
+                  <c:v>0.96160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59370000000000001</c:v>
+                  <c:v>0.58260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -4988,10 +4989,10 @@
                   <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80920000000000003</c:v>
+                  <c:v>0.78669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.84941111111111101</c:v>
+                  <c:v>0.83420000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,7 +5007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>200%</c:v>
+                  <c:v>100%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5064,22 +5065,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.98809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61870000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84840000000000004</c:v>
+                  <c:v>0.94740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7843</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.99690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97</c:v>
+                  <c:v>0.9647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62849999999999995</c:v>
+                  <c:v>0.59370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -5088,10 +5089,10 @@
                   <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84319999999999995</c:v>
+                  <c:v>0.80920000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.87507777777777784</c:v>
+                  <c:v>0.84940000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,7 +5107,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>300%</c:v>
+                  <c:v>200%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5164,34 +5165,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89729999999999999</c:v>
+                  <c:v>0.98809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84840000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.997</c:v>
+                  <c:v>0.99690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97360000000000002</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66720000000000002</c:v>
+                  <c:v>0.62849999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.9819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87580000000000002</c:v>
+                  <c:v>0.84319999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.89537777777777783</c:v>
+                  <c:v>0.87509999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,7 +5207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>400%</c:v>
+                  <c:v>300%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5267,19 +5268,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70620000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94279999999999997</c:v>
+                  <c:v>0.66549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97609999999999997</c:v>
+                  <c:v>0.97360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65990000000000004</c:v>
+                  <c:v>0.66720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -5288,10 +5289,10 @@
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89590000000000003</c:v>
+                  <c:v>0.87580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.90665555555555555</c:v>
+                  <c:v>0.89539999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,7 +5307,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500%</c:v>
+                  <c:v>400%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5367,19 +5368,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73109999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98309999999999997</c:v>
+                  <c:v>0.70620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99709999999999999</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97909999999999997</c:v>
+                  <c:v>0.97609999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66790000000000005</c:v>
+                  <c:v>0.65990000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -5388,10 +5389,10 @@
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95599999999999996</c:v>
+                  <c:v>0.89590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.92181111111111114</c:v>
+                  <c:v>0.90669999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,7 +5407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600%</c:v>
+                  <c:v>500%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5467,19 +5468,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.73109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.99709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98119999999999996</c:v>
+                  <c:v>0.97909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74819999999999998</c:v>
+                  <c:v>0.66790000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -5488,10 +5489,10 @@
                   <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99439999999999995</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.94471111111111106</c:v>
+                  <c:v>0.92179999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,7 +5507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>700% Overhead</c:v>
+                  <c:v>600%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5567,7 +5568,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86660000000000004</c:v>
+                  <c:v>0.79949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -5576,6 +5577,106 @@
                   <c:v>0.99709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.98119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>0.94469999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bc!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>700% Overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>bc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bc!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.98319999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -5590,8 +5691,8 @@
                 <c:pt idx="8">
                   <c:v>0.99970000000000003</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.95586666666666664</c:v>
+                <c:pt idx="9">
+                  <c:v>0.95589999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5606,17 +5707,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152484096"/>
-        <c:axId val="152494080"/>
+        <c:axId val="156783360"/>
+        <c:axId val="156784896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152484096"/>
+        <c:axId val="156783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5630,7 +5731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152494080"/>
+        <c:crossAx val="156784896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5638,7 +5739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152494080"/>
+        <c:axId val="156784896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5676,7 +5777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152484096"/>
+        <c:crossAx val="156783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5689,8 +5790,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20591144795083699"/>
           <c:y val="0.84352873660022498"/>
-          <c:w val="0.58817710409832702"/>
-          <c:h val="8.6334289202725706E-2"/>
+          <c:w val="0.6423086850840265"/>
+          <c:h val="8.5941855761350147E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5750,7 +5851,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50%</c:v>
+                  <c:v>10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5808,34 +5909,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44140000000000001</c:v>
+                  <c:v>0.26540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.34770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39529999999999998</c:v>
+                  <c:v>0.2445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4148</c:v>
+                  <c:v>0.12690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49149999999999999</c:v>
+                  <c:v>0.36809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>0.9587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3533</c:v>
+                  <c:v>0.1996</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.5059555555555556</c:v>
+                  <c:v>0.3211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,7 +5951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100%</c:v>
+                  <c:v>50%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5908,34 +6009,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.55300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32629999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59430000000000005</c:v>
+                  <c:v>0.43049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89680000000000004</c:v>
+                  <c:v>0.82330000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51849999999999996</c:v>
+                  <c:v>0.39529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74660000000000004</c:v>
+                  <c:v>0.4148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59719999999999995</c:v>
+                  <c:v>0.49149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99470000000000003</c:v>
+                  <c:v>0.97660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47570000000000001</c:v>
+                  <c:v>0.3533</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.63367777777777767</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5950,7 +6051,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>200%</c:v>
+                  <c:v>100%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6008,34 +6109,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.78580000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81979999999999997</c:v>
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94910000000000005</c:v>
+                  <c:v>0.89680000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70230000000000004</c:v>
+                  <c:v>0.51849999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91339999999999999</c:v>
+                  <c:v>0.74660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8196</c:v>
+                  <c:v>0.59719999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99860000000000004</c:v>
+                  <c:v>0.99470000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71289999999999998</c:v>
+                  <c:v>0.47570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.80172222222222222</c:v>
+                  <c:v>0.63370000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6050,7 +6151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>300%</c:v>
+                  <c:v>200%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6108,34 +6209,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64870000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99650000000000005</c:v>
+                  <c:v>0.78580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98370000000000002</c:v>
+                  <c:v>0.94910000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86770000000000003</c:v>
+                  <c:v>0.70230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.91339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99839999999999995</c:v>
+                  <c:v>0.8196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99960000000000004</c:v>
+                  <c:v>0.99860000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9284</c:v>
+                  <c:v>0.71289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.93588888888888888</c:v>
+                  <c:v>0.80169999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6150,7 +6251,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>400%</c:v>
+                  <c:v>300%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6211,31 +6312,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.64870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99650000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99980000000000002</c:v>
+                  <c:v>0.98370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.86770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99919999999999998</c:v>
+                  <c:v>0.99839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99980000000000002</c:v>
+                  <c:v>0.99960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.9284</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.97512222222222222</c:v>
+                  <c:v>0.93589999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,7 +6351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500%</c:v>
+                  <c:v>400%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6311,13 +6412,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.77729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>0.99980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6326,16 +6427,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99929999999999997</c:v>
+                  <c:v>0.99919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.98991111111111119</c:v>
+                  <c:v>0.97509999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6350,7 +6451,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600%</c:v>
+                  <c:v>500%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6411,7 +6512,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -6426,7 +6527,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99939999999999996</c:v>
+                  <c:v>0.99929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -6435,7 +6536,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.99903333333333322</c:v>
+                  <c:v>0.9899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6450,7 +6551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>700% Overhead</c:v>
+                  <c:v>600%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6511,13 +6612,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6535,7 +6636,107 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.0000">
-                  <c:v>0.99993333333333334</c:v>
+                  <c:v>0.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>umc!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>700% Overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>umc!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>umc!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99990000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6550,11 +6751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152782720"/>
-        <c:axId val="152784256"/>
+        <c:axId val="156971392"/>
+        <c:axId val="156972928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152782720"/>
+        <c:axId val="156971392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6574,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152784256"/>
+        <c:crossAx val="156972928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6582,7 +6783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152784256"/>
+        <c:axId val="156972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6613,7 +6814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152782720"/>
+        <c:crossAx val="156971392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6626,8 +6827,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20591144795083699"/>
           <c:y val="0.84352873660022498"/>
-          <c:w val="0.58817710409832702"/>
-          <c:h val="8.6334289202725706E-2"/>
+          <c:w val="0.65846255946871091"/>
+          <c:h val="9.2497357147928713E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7513,11 +7714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152749952"/>
-        <c:axId val="152751488"/>
+        <c:axId val="157065600"/>
+        <c:axId val="157067136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152749952"/>
+        <c:axId val="157065600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7527,7 +7728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152751488"/>
+        <c:crossAx val="157067136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7535,7 +7736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152751488"/>
+        <c:axId val="157067136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7560,14 +7761,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152749952"/>
+        <c:crossAx val="157065600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8564,11 +8764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152991232"/>
-        <c:axId val="152992768"/>
+        <c:axId val="157157632"/>
+        <c:axId val="157175808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152991232"/>
+        <c:axId val="157157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8588,7 +8788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152992768"/>
+        <c:crossAx val="157175808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8596,7 +8796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152992768"/>
+        <c:axId val="157175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8634,7 +8834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152991232"/>
+        <c:crossAx val="157157632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9631,11 +9831,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153148800"/>
-        <c:axId val="153162880"/>
+        <c:axId val="157394816"/>
+        <c:axId val="157396352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153148800"/>
+        <c:axId val="157394816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,7 +9855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153162880"/>
+        <c:crossAx val="157396352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9663,7 +9863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153162880"/>
+        <c:axId val="157396352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9693,7 +9893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153148800"/>
+        <c:crossAx val="157394816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10579,11 +10779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153258240"/>
-        <c:axId val="153272320"/>
+        <c:axId val="157430528"/>
+        <c:axId val="157432064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153258240"/>
+        <c:axId val="157430528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10593,7 +10793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153272320"/>
+        <c:crossAx val="157432064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10601,7 +10801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153272320"/>
+        <c:axId val="157432064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10631,7 +10831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153258240"/>
+        <c:crossAx val="157430528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11649,11 +11849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153438080"/>
-        <c:axId val="153439616"/>
+        <c:axId val="157540736"/>
+        <c:axId val="157542272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153438080"/>
+        <c:axId val="157540736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11673,7 +11873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153439616"/>
+        <c:crossAx val="157542272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11681,7 +11881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153439616"/>
+        <c:axId val="157542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11719,7 +11919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153438080"/>
+        <c:crossAx val="157540736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11839,7 +12039,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11851,7 +12051,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12085,7 +12285,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6279963" cy="2180478"/>
+    <xdr:ext cx="6283854" cy="2182813"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -12112,7 +12312,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6279963" cy="2180478"/>
+    <xdr:ext cx="6129694" cy="2028112"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14338,7 +14538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -14547,10 +14747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A2" sqref="A2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14592,25 +14792,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="7">
-        <v>0.91379999999999995</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="C2" s="7">
-        <v>0.53779999999999994</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="D2" s="7">
-        <v>0.75449999999999995</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="E2" s="7">
-        <v>0.98899999999999999</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="F2" s="7">
-        <v>0.96160000000000001</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="G2" s="7">
-        <v>0.58260000000000001</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -14619,34 +14819,33 @@
         <v>0.9819</v>
       </c>
       <c r="J2" s="7">
-        <v>0.78669999999999995</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="K2" s="4">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.83421111111111101</v>
+        <v>0.81820000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="7">
-        <v>0.94740000000000002</v>
+        <v>0.91379999999999995</v>
       </c>
       <c r="C3" s="7">
-        <v>0.56659999999999999</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="D3" s="7">
-        <v>0.7843</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="E3" s="7">
-        <v>0.99690000000000001</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="F3" s="7">
-        <v>0.9647</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="G3" s="7">
-        <v>0.59370000000000001</v>
+        <v>0.58260000000000001</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -14655,34 +14854,33 @@
         <v>0.9819</v>
       </c>
       <c r="J3" s="7">
-        <v>0.80920000000000003</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="K3" s="4">
-        <f>AVERAGE(B3:J3)</f>
-        <v>0.84941111111111101</v>
+        <v>0.83420000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>0.98809999999999998</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C4" s="7">
-        <v>0.61870000000000003</v>
+        <v>0.56659999999999999</v>
       </c>
       <c r="D4" s="7">
-        <v>0.84840000000000004</v>
+        <v>0.7843</v>
       </c>
       <c r="E4" s="7">
         <v>0.99690000000000001</v>
       </c>
       <c r="F4" s="7">
-        <v>0.97</v>
+        <v>0.9647</v>
       </c>
       <c r="G4" s="7">
-        <v>0.62849999999999995</v>
+        <v>0.59370000000000001</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -14691,70 +14889,68 @@
         <v>0.9819</v>
       </c>
       <c r="J4" s="7">
-        <v>0.84319999999999995</v>
+        <v>0.80920000000000003</v>
       </c>
       <c r="K4" s="4">
-        <f>AVERAGE(B4:J4)</f>
-        <v>0.87507777777777784</v>
+        <v>0.84940000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="C5" s="7">
-        <v>0.66549999999999998</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="D5" s="7">
-        <v>0.89729999999999999</v>
+        <v>0.84840000000000004</v>
       </c>
       <c r="E5" s="7">
-        <v>0.997</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="F5" s="7">
-        <v>0.97360000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="G5" s="7">
-        <v>0.66720000000000002</v>
+        <v>0.62849999999999995</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0.98199999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="J5" s="7">
-        <v>0.87580000000000002</v>
+        <v>0.84319999999999995</v>
       </c>
       <c r="K5" s="4">
-        <f>AVERAGE(B5:J5)</f>
-        <v>0.89537777777777783</v>
+        <v>0.87509999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>0.70620000000000005</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="D6" s="7">
-        <v>0.94279999999999997</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="E6" s="7">
         <v>0.997</v>
       </c>
       <c r="F6" s="7">
-        <v>0.97609999999999997</v>
+        <v>0.97360000000000002</v>
       </c>
       <c r="G6" s="7">
-        <v>0.65990000000000004</v>
+        <v>0.66720000000000002</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -14763,34 +14959,33 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="J6" s="7">
-        <v>0.89590000000000003</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="K6" s="4">
-        <f>AVERAGE(B6:J6)</f>
-        <v>0.90665555555555555</v>
+        <v>0.89539999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>0.73109999999999997</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="D7" s="7">
-        <v>0.98309999999999997</v>
+        <v>0.94279999999999997</v>
       </c>
       <c r="E7" s="7">
-        <v>0.99709999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="F7" s="7">
-        <v>0.97909999999999997</v>
+        <v>0.97609999999999997</v>
       </c>
       <c r="G7" s="7">
-        <v>0.66790000000000005</v>
+        <v>0.65990000000000004</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -14799,34 +14994,33 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="J7" s="7">
-        <v>0.95599999999999996</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="K7" s="4">
-        <f>AVERAGE(B7:J7)</f>
-        <v>0.92181111111111114</v>
+        <v>0.90669999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0.79949999999999999</v>
+        <v>0.73109999999999997</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="E8" s="7">
         <v>0.99709999999999999</v>
       </c>
       <c r="F8" s="7">
-        <v>0.98119999999999996</v>
+        <v>0.97909999999999997</v>
       </c>
       <c r="G8" s="7">
-        <v>0.74819999999999998</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -14835,22 +15029,21 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="J8" s="7">
-        <v>0.99439999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="K8" s="4">
-        <f>AVERAGE(B8:J8)</f>
-        <v>0.94471111111111106</v>
+        <v>0.92179999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="A9" s="1">
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>0.86660000000000004</v>
+        <v>0.79949999999999999</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -14859,10 +15052,10 @@
         <v>0.99709999999999999</v>
       </c>
       <c r="F9" s="7">
-        <v>0.98319999999999996</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G9" s="7">
-        <v>0.7742</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -14871,11 +15064,45 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="J9" s="7">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.94469999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.7742</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J10">
         <v>0.99970000000000003</v>
       </c>
-      <c r="K9" s="4">
-        <f>AVERAGE(B9:J9)</f>
-        <v>0.95586666666666664</v>
+      <c r="K10">
+        <v>0.95589999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -14891,10 +15118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14905,231 +15132,226 @@
     <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="7">
-        <v>0.43049999999999999</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="C2" s="7">
-        <v>0.22689999999999999</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="D2" s="7">
-        <v>0.44140000000000001</v>
+        <v>0.27150000000000002</v>
       </c>
       <c r="E2" s="7">
-        <v>0.82330000000000003</v>
+        <v>0.34770000000000001</v>
       </c>
       <c r="F2" s="7">
-        <v>0.39529999999999998</v>
+        <v>0.2445</v>
       </c>
       <c r="G2" s="7">
-        <v>0.4148</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="H2" s="7">
-        <v>0.49149999999999999</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="I2" s="7">
-        <v>0.97660000000000002</v>
+        <v>0.9587</v>
       </c>
       <c r="J2" s="7">
-        <v>0.3533</v>
+        <v>0.1996</v>
       </c>
       <c r="K2" s="4">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.5059555555555556</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="7">
-        <v>0.55300000000000005</v>
+        <v>0.43049999999999999</v>
       </c>
       <c r="C3" s="7">
-        <v>0.32629999999999998</v>
+        <v>0.22689999999999999</v>
       </c>
       <c r="D3" s="7">
-        <v>0.59430000000000005</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="E3" s="7">
-        <v>0.89680000000000004</v>
+        <v>0.82330000000000003</v>
       </c>
       <c r="F3" s="7">
-        <v>0.51849999999999996</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="G3" s="7">
-        <v>0.74660000000000004</v>
+        <v>0.4148</v>
       </c>
       <c r="H3" s="7">
-        <v>0.59719999999999995</v>
+        <v>0.49149999999999999</v>
       </c>
       <c r="I3" s="7">
-        <v>0.99470000000000003</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="J3" s="7">
-        <v>0.47570000000000001</v>
+        <v>0.3533</v>
       </c>
       <c r="K3" s="4">
-        <f>AVERAGE(B3:J3)</f>
-        <v>0.63367777777777767</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>0.78580000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C4" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.32629999999999998</v>
       </c>
       <c r="D4" s="7">
-        <v>0.81979999999999997</v>
+        <v>0.59430000000000005</v>
       </c>
       <c r="E4" s="7">
-        <v>0.94910000000000005</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="F4" s="7">
-        <v>0.70230000000000004</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="G4" s="7">
-        <v>0.91339999999999999</v>
+        <v>0.74660000000000004</v>
       </c>
       <c r="H4" s="7">
-        <v>0.8196</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="I4" s="7">
-        <v>0.99860000000000004</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="J4" s="7">
-        <v>0.71289999999999998</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="K4" s="4">
-        <f>AVERAGE(B4:J4)</f>
-        <v>0.80172222222222222</v>
+        <v>0.63370000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="C5" s="7">
-        <v>0.64870000000000005</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D5" s="7">
-        <v>0.99650000000000005</v>
+        <v>0.81979999999999997</v>
       </c>
       <c r="E5" s="7">
-        <v>0.98370000000000002</v>
+        <v>0.94910000000000005</v>
       </c>
       <c r="F5" s="7">
-        <v>0.86770000000000003</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="H5" s="7">
-        <v>0.99839999999999995</v>
+        <v>0.8196</v>
       </c>
       <c r="I5" s="7">
-        <v>0.99960000000000004</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="J5" s="7">
-        <v>0.9284</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="K5" s="4">
-        <f>AVERAGE(B5:J5)</f>
-        <v>0.93588888888888888</v>
+        <v>0.80169999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>0.77729999999999999</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="E6" s="7">
-        <v>0.99980000000000002</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>0.99919999999999998</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="I6" s="7">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="J6" s="7">
-        <v>1</v>
+        <v>0.9284</v>
       </c>
       <c r="K6" s="4">
-        <f>AVERAGE(B6:J6)</f>
-        <v>0.97512222222222222</v>
+        <v>0.93589999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>0.91</v>
+        <v>0.77729999999999999</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0.99990000000000001</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -15138,28 +15360,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>0.99929999999999997</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <f>AVERAGE(B7:J7)</f>
-        <v>0.98991111111111119</v>
+        <v>0.97509999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0.99199999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -15174,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>0.99939999999999996</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -15183,25 +15404,24 @@
         <v>1</v>
       </c>
       <c r="K8" s="4">
-        <f>AVERAGE(B8:J8)</f>
-        <v>0.99903333333333322</v>
+        <v>0.9899</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
+      <c r="A9" s="1">
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -15219,8 +15439,42 @@
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <f>AVERAGE(B9:J9)</f>
-        <v>0.99993333333333334</v>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.99990000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/figs_src/data.xlsx
+++ b/figs_src/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17475" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="full_mon" sheetId="1" r:id="rId1"/>
@@ -4717,6 +4717,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
@@ -6827,8 +6828,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.20591144795083699"/>
           <c:y val="0.84352873660022498"/>
-          <c:w val="0.65846255946871091"/>
-          <c:h val="9.2497357147928713E-2"/>
+          <c:w val="0.6423086850840265"/>
+          <c:h val="8.5941855761350147E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12051,7 +12052,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="159" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12258,7 +12259,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="3075653" cy="2175387"/>
+    <xdr:ext cx="2925097" cy="2021758"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -12312,7 +12313,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6129694" cy="2028112"/>
+    <xdr:ext cx="6283854" cy="2182813"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14536,10 +14537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14732,6 +14733,23 @@
       <c r="K8" s="2">
         <f>0.5/(K3-1)</f>
         <v>0.20215007350133049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="K9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="K10" s="2">
+        <f>0.1/K2</f>
+        <v>2.8423119377468317E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="K11" s="2">
+        <f>0.1/K3</f>
+        <v>2.8790152010280672E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15120,7 +15138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
